--- a/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_tour.xlsx
+++ b/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_tour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\VietTravelClientDev\VietTravelClient\VietTravelClient\wwwroot\ReportExcelTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6111FB-D8AE-41C9-B004-EE779151A507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901EFEC8-63C4-4534-ADB7-078288859D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{EB8E4927-244E-44C8-936E-5BA7EDA58DCE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>STT</t>
   </si>
@@ -36,7 +36,10 @@
     <t xml:space="preserve">Doanh thu </t>
   </si>
   <si>
-    <t>THỐNG KÊ DOANH THU THEO THÁNG</t>
+    <t>THỐNG KÊ DOANH THU THEO TOUR</t>
+  </si>
+  <si>
+    <t>Tour</t>
   </si>
 </sst>
 </file>
@@ -112,13 +115,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +441,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -449,20 +452,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_tour.xlsx
+++ b/VietTravelClient/VietTravelClient/wwwroot/ReportExcelTemp/Bao_cao_thong_ke_doanh_thu_theo_tour.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\VietTravelClientDev\VietTravelClient\VietTravelClient\wwwroot\ReportExcelTemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\VietTravelClientNewDb\VietTravelClient\VietTravelClient\wwwroot\ReportExcelTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6111FB-D8AE-41C9-B004-EE779151A507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7235413-3D08-43A0-9D2E-93C47192C99A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{EB8E4927-244E-44C8-936E-5BA7EDA58DCE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>STT</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Doanh thu </t>
   </si>
   <si>
-    <t>THỐNG KÊ DOANH THU THEO THÁNG</t>
+    <t>THỐNG KÊ DOANH THU THEO TOUR</t>
   </si>
 </sst>
 </file>
@@ -112,13 +112,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +438,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -449,20 +449,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
